--- a/biology/Zoologie/Dichela/Dichela.xlsx
+++ b/biology/Zoologie/Dichela/Dichela.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dichela est un genre fossile de pseudoscorpions de la famille des Cheliferidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre ont été découvertes dans de l'ambre de la mer Baltique, en Pologne et en Russie[1]. Elles datent de l'Éocène[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre ont été découvertes dans de l'ambre de la mer Baltique, en Pologne et en Russie. Elles datent de l'Éocène.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Pseudoscorpions of the World (version 3.0)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Pseudoscorpions of the World (version 3.0) :
 † Dichela berendtii Menge, 1854
 † Dichela gracilis (Beier, 1937)
 † Dichela granulatus (Beier, 1937)
@@ -576,7 +592,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> : document utilisé comme source pour la rédaction de cet article.
 C. L. Koch &amp; Berendt, 1854 : Die im Bernstein befindlichen Myriapoden, Arachniden und Apteren der Vorwelt. Die im Bernstein Befindlichen Organischen Reste der Vorwelt Gesammelt in Verbindung mit Mehreren Bearbeitet und Herausgegeben, vol. 1, no 2, p. 1-124.</t>
